--- a/scripts/Competences/Competences_PCSI_PSI.xlsx
+++ b/scripts/Competences/Competences_PCSI_PSI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\scripts\Competences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C567F1-4665-486F-B25C-52E36436FE68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93C5F1-3382-48CC-88EC-36A66042701A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{343E057D-976D-4681-BFD1-AAFA1B4BE677}"/>
+    <workbookView xWindow="20" yWindow="1060" windowWidth="19180" windowHeight="9740" xr2:uid="{343E057D-976D-4681-BFD1-AAFA1B4BE677}"/>
   </bookViews>
   <sheets>
     <sheet name="Competences" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="312">
   <si>
     <t>PCSI/PSI</t>
   </si>
@@ -1052,12 +1052,81 @@
  – structures algorithmiques.
 Choix et paramètres d'un correcteur.</t>
   </si>
+  <si>
+    <t>Déterminer les performances d'un système asservi. Stabilité des systèmes.</t>
+  </si>
+  <si>
+    <t>Déterminer les performances d'un système asservi. Rapidité des systèmes.</t>
+  </si>
+  <si>
+    <t>Déterminer les performances d'un système asservi. Précision des systèmes.</t>
+  </si>
+  <si>
+    <t>C2-03-a</t>
+  </si>
+  <si>
+    <t>C2-03-b</t>
+  </si>
+  <si>
+    <t>C2-03-c</t>
+  </si>
+  <si>
+    <t>C2-09-a</t>
+  </si>
+  <si>
+    <t>Déterminer la loi de mouvement dans le cas où les efforts extérieurs sont connus. Calculer un torseur cinétique et un torseur dynamique.</t>
+  </si>
+  <si>
+    <t>C2-09-b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déterminer la loi de mouvement dans le cas où les efforts extérieurs sont connus. Résoudre en utilisant le PFD. </t>
+  </si>
+  <si>
+    <t>C2-09-c</t>
+  </si>
+  <si>
+    <t>C2-09-d</t>
+  </si>
+  <si>
+    <t>C2-09-e</t>
+  </si>
+  <si>
+    <t>Stabilité des systèmes.</t>
+  </si>
+  <si>
+    <t>Rapidité des systèmes.</t>
+  </si>
+  <si>
+    <t>Précision des systèmes.</t>
+  </si>
+  <si>
+    <t>Calculer un torseur cinétique et un torseur dynamique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Résoudre en utilisant le PFD. </t>
+  </si>
+  <si>
+    <t>ZY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déterminer la loi de mouvement dans le cas où les efforts extérieurs sont connus. Calculer des puissances. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculer des puissances. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcul d'énergie cinétique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Déterminer la loi de mouvement dans le cas où les efforts extérieurs sont connus. Calculer d'énergie cinétique. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1196,6 +1265,21 @@
     <font>
       <sz val="8"/>
       <color rgb="FF75BC37"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1349,11 +1433,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1396,15 +1477,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1435,18 +1507,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1477,12 +1540,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1509,12 +1566,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1576,6 +1627,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1891,1756 +1981,1840 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F423084-D9DD-4625-BC73-90B5D74F5303}">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="74" customWidth="1"/>
-    <col min="2" max="3" width="62.7265625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="76" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="5"/>
+    <col min="1" max="1" width="6.26953125" style="63" customWidth="1"/>
+    <col min="2" max="3" width="62.7265625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="65" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="D9" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="D10" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="D11" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
+      <c r="D18" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
+      <c r="D21" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
     </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+    <row r="29" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="23"/>
-    </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24" t="s">
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24" t="s">
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="26"/>
-    </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="30" t="s">
+      <c r="D40" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
+      <c r="D41" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="33" t="s">
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="33" t="s">
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="33" t="s">
+      <c r="D48" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="33" t="s">
+      <c r="D49" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="33" t="s">
+      <c r="D50" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D51" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="33" t="s">
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D52" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="24" t="s">
+      <c r="D52" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D53" s="26"/>
-    </row>
-    <row r="54" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A54" s="27" t="s">
+      <c r="D53" s="22"/>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A54" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="27" t="s">
+      <c r="D54" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D55" s="30" t="s">
+      <c r="D55" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
+    <row r="56" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3"/>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="34" t="s">
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="36"/>
-    </row>
-    <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="37" t="s">
+      <c r="D58" s="29"/>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="39"/>
-    </row>
-    <row r="60" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="40" t="s">
+      <c r="D59" s="32"/>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="40" t="s">
+      <c r="D60" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D61" s="42" t="s">
+      <c r="D61" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="40" t="s">
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="D62" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="40" t="s">
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A64" s="40" t="s">
+    <row r="64" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="37" t="s">
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C65" s="38" t="s">
+      <c r="C65" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="D65" s="39"/>
-    </row>
-    <row r="66" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="40" t="s">
+      <c r="D65" s="32"/>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="40" t="s">
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="D67" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="B68" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="D68" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="40" t="s">
+      <c r="D67" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="C68" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B69" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="C69" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B70" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B71" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C71" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D69" s="42" t="s">
+      <c r="D71" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="40" t="s">
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B72" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="41" t="s">
+      <c r="C72" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="42" t="s">
+      <c r="D72" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="40" t="s">
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B73" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C73" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="D71" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="40" t="s">
+      <c r="D73" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B74" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="C74" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="D72" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="40" t="s">
+      <c r="D74" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B75" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C75" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="D73" s="42" t="s">
+      <c r="D75" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="B74" s="41" t="s">
+    <row r="76" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A76" s="78" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76" s="77" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A77" s="78" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" s="77" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="77" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A78" s="78" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" s="77" t="s">
+        <v>308</v>
+      </c>
+      <c r="C78" s="77" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A79" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" s="77" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C80" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="42" t="s">
+      <c r="D80" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="37" t="s">
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B81" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C81" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="D75" s="39"/>
-    </row>
-    <row r="76" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="40" t="s">
+      <c r="D81" s="32"/>
+    </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B82" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C82" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="D76" s="42" t="s">
+      <c r="D82" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="40" t="s">
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B83" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C83" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="D77" s="42" t="s">
+      <c r="D83" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="40" t="s">
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B84" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C84" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="D78" s="42" t="s">
+      <c r="D84" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="46" t="s">
+    <row r="85" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B86" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="47" t="s">
+      <c r="C86" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="D80" s="48"/>
-    </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="49" t="s">
+      <c r="D86" s="39"/>
+    </row>
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B87" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="C81" s="50" t="s">
+      <c r="C87" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="51" t="s">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="B82" s="52" t="s">
+      <c r="B88" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C88" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="D82" s="53" t="s">
+      <c r="D88" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="51" t="s">
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="B83" s="52" t="s">
+      <c r="B89" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="C83" s="52" t="s">
+      <c r="C89" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="D83" s="53" t="s">
+      <c r="D89" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="51" t="s">
+    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B90" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="C84" s="52" t="s">
+      <c r="C90" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="D84" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="49" t="s">
+      <c r="D90" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B91" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="C85" s="50" t="s">
+      <c r="C91" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="51" t="s">
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="B86" s="52" t="s">
+      <c r="B92" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C92" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="D86" s="53" t="s">
+      <c r="D92" s="44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A87" s="51" t="s">
+    <row r="93" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A93" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="B87" s="52" t="s">
+      <c r="B93" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C93" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="D87" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="51" t="s">
+      <c r="D93" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B88" s="52" t="s">
+      <c r="B94" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="C88" s="52" t="s">
+      <c r="C94" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D88" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="51" t="s">
+      <c r="D94" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B89" s="52" t="s">
+      <c r="B95" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="C89" s="52" t="s">
+      <c r="C95" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="51" t="s">
+      <c r="D95" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="B90" s="52" t="s">
+      <c r="B96" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C90" s="52" t="s">
+      <c r="C96" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="D90" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="51" t="s">
+      <c r="D96" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B97" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C91" s="52" t="s">
+      <c r="C97" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="D91" s="53" t="s">
+      <c r="D97" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="49" t="s">
+    <row r="98" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B98" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="C92" s="50" t="s">
+      <c r="C98" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="51" t="s">
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="B93" s="52" t="s">
+      <c r="B99" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C99" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="D93" s="53" t="s">
+      <c r="D99" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="51" t="s">
+    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B100" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="C94" s="52" t="s">
+      <c r="C100" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="D94" s="53" t="s">
+      <c r="D100" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="51" t="s">
+    <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B101" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="C95" s="52" t="s">
+      <c r="C101" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="D95" s="53" t="s">
+      <c r="D101" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="51" t="s">
+    <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B102" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="C96" s="52" t="s">
+      <c r="C102" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="D96" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="51" t="s">
+      <c r="D102" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="B97" s="52" t="s">
+      <c r="B103" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C103" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="D97" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="3"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="56" t="s">
+      <c r="D103" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="2"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="B99" s="57" t="s">
+      <c r="B105" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="C99" s="57" t="s">
+      <c r="C105" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="D99" s="58"/>
-    </row>
-    <row r="100" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="59" t="s">
+      <c r="D105" s="47"/>
+    </row>
+    <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="B100" s="60" t="s">
+      <c r="B106" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="C100" s="60" t="s">
+      <c r="C106" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="61" t="s">
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="B101" s="62" t="s">
+      <c r="B107" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C101" s="62" t="s">
+      <c r="C107" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="D101" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="61" t="s">
+      <c r="D107" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="B102" s="62" t="s">
+      <c r="B108" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C102" s="62" t="s">
+      <c r="C108" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="D102" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="61" t="s">
+      <c r="D108" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B109" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C109" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="D103" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="61" t="s">
+      <c r="D109" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="B104" s="62" t="s">
+      <c r="B110" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C104" s="62" t="s">
+      <c r="C110" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="D104" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="61" t="s">
+      <c r="D110" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="B105" s="62" t="s">
+      <c r="B111" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C105" s="62" t="s">
+      <c r="C111" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="D105" s="63" t="s">
+      <c r="D111" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="61" t="s">
+    <row r="112" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="B106" s="62" t="s">
+      <c r="B112" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="C106" s="62" t="s">
+      <c r="C112" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="D106" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="61" t="s">
+      <c r="D112" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="B107" s="62" t="s">
+      <c r="B113" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C113" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="D107" s="63"/>
-    </row>
-    <row r="108" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="59" t="s">
+      <c r="D113" s="52"/>
+    </row>
+    <row r="114" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="B108" s="60" t="s">
+      <c r="B114" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="C108" s="60" t="s">
+      <c r="C114" s="49" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="61" t="s">
+    <row r="115" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B115" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="C109" s="62" t="s">
+      <c r="C115" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="D109" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="61" t="s">
+      <c r="D115" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="B110" s="62" t="s">
+      <c r="B116" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C110" s="62" t="s">
+      <c r="C116" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="D110" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="61" t="s">
+      <c r="D116" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="B111" s="62" t="s">
+      <c r="B117" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C111" s="62" t="s">
+      <c r="C117" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="D111" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="61" t="s">
+      <c r="D117" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="B112" s="62" t="s">
+      <c r="B118" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="C112" s="62" t="s">
+      <c r="C118" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="D112" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="61" t="s">
+      <c r="D118" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="B113" s="62" t="s">
+      <c r="B119" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C113" s="62" t="s">
+      <c r="C119" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="D113" s="63" t="s">
+      <c r="D119" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="61" t="s">
+    <row r="120" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="B114" s="62" t="s">
+      <c r="B120" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C114" s="62" t="s">
+      <c r="C120" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D114" s="63" t="s">
+      <c r="D120" s="52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="3"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="64" t="s">
+    <row r="121" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="2"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="B116" s="65" t="s">
+      <c r="B122" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="C116" s="65" t="s">
+      <c r="C122" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="D116" s="67"/>
-    </row>
-    <row r="117" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="68" t="s">
+      <c r="D122" s="56"/>
+    </row>
+    <row r="123" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="B117" s="69" t="s">
+      <c r="B123" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="C117" s="69" t="s">
+      <c r="C123" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="70" t="s">
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="B118" s="71" t="s">
+      <c r="B124" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="C118" s="71" t="s">
+      <c r="C124" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="D118" s="72" t="s">
+      <c r="D124" s="61" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="68" t="s">
+    <row r="125" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="B119" s="69" t="s">
+      <c r="B125" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="C119" s="69" t="s">
+      <c r="C125" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="73" t="s">
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="B120" s="71" t="s">
+      <c r="B126" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="C120" s="71" t="s">
+      <c r="C126" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="D120" s="72" t="s">
+      <c r="D126" s="61" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="74"/>
-      <c r="B121" s="75"/>
-      <c r="C121" s="75"/>
-      <c r="D121" s="76"/>
-    </row>
-    <row r="122" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="74"/>
-      <c r="B122" s="75"/>
-      <c r="C122" s="75"/>
-      <c r="D122" s="76"/>
-    </row>
-    <row r="123" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="74"/>
-      <c r="B123" s="75"/>
-      <c r="C123" s="75"/>
-      <c r="D123" s="76"/>
-    </row>
-    <row r="124" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="74"/>
-      <c r="B124" s="75"/>
-      <c r="C124" s="75"/>
-      <c r="D124" s="76"/>
-    </row>
-    <row r="125" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="74"/>
-      <c r="B125" s="75"/>
-      <c r="C125" s="75"/>
-      <c r="D125" s="76"/>
-    </row>
-    <row r="126" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="74"/>
-      <c r="B126" s="75"/>
-      <c r="C126" s="75"/>
-      <c r="D126" s="76"/>
-    </row>
-    <row r="127" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="74"/>
-      <c r="B127" s="75"/>
-      <c r="C127" s="75"/>
-      <c r="D127" s="76"/>
-    </row>
-    <row r="128" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="74"/>
-      <c r="B128" s="75"/>
-      <c r="C128" s="75"/>
-      <c r="D128" s="76"/>
-    </row>
-    <row r="129" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="74"/>
-      <c r="B129" s="75"/>
-      <c r="C129" s="75"/>
-      <c r="D129" s="76"/>
-    </row>
-    <row r="130" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="74"/>
-      <c r="B130" s="75"/>
-      <c r="C130" s="75"/>
-      <c r="D130" s="76"/>
-    </row>
-    <row r="131" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="74"/>
-      <c r="B131" s="75"/>
-      <c r="C131" s="75"/>
-      <c r="D131" s="76"/>
-    </row>
-    <row r="132" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="74"/>
-      <c r="B132" s="75"/>
-      <c r="C132" s="75"/>
-      <c r="D132" s="76"/>
-    </row>
-    <row r="133" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="74"/>
-      <c r="B133" s="75"/>
-      <c r="C133" s="75"/>
-      <c r="D133" s="76"/>
-    </row>
-    <row r="134" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="74"/>
-      <c r="B134" s="75"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="76"/>
-    </row>
-    <row r="135" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="74"/>
-      <c r="B135" s="75"/>
-      <c r="C135" s="75"/>
-      <c r="D135" s="76"/>
-    </row>
-    <row r="136" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="74"/>
-      <c r="B136" s="75"/>
-      <c r="C136" s="75"/>
-      <c r="D136" s="76"/>
-    </row>
-    <row r="137" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="74"/>
-      <c r="B137" s="75"/>
-      <c r="C137" s="75"/>
-      <c r="D137" s="76"/>
-    </row>
-    <row r="138" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="74"/>
-      <c r="B138" s="75"/>
-      <c r="C138" s="75"/>
-      <c r="D138" s="76"/>
-    </row>
-    <row r="152" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="75"/>
-      <c r="C152" s="75"/>
-      <c r="D152" s="76"/>
-    </row>
-    <row r="153" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="75"/>
-      <c r="C153" s="75"/>
-      <c r="D153" s="76"/>
-    </row>
-    <row r="154" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="75"/>
-      <c r="C154" s="75"/>
-      <c r="D154" s="76"/>
-    </row>
-    <row r="155" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="75"/>
-      <c r="C155" s="75"/>
-      <c r="D155" s="76"/>
-    </row>
-    <row r="156" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="75"/>
-      <c r="C156" s="75"/>
-      <c r="D156" s="76"/>
-    </row>
-    <row r="157" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="75"/>
-      <c r="C157" s="75"/>
-      <c r="D157" s="76"/>
-    </row>
-    <row r="158" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="75"/>
-      <c r="C158" s="75"/>
-      <c r="D158" s="76"/>
-    </row>
-    <row r="159" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="75"/>
-      <c r="C159" s="75"/>
-      <c r="D159" s="76"/>
+    <row r="127" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="63"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="65"/>
+    </row>
+    <row r="128" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="63"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="65"/>
+    </row>
+    <row r="129" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="63"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="65"/>
+    </row>
+    <row r="130" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="63"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="65"/>
+    </row>
+    <row r="131" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="63"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="65"/>
+    </row>
+    <row r="132" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="63"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="65"/>
+    </row>
+    <row r="133" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="63"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="65"/>
+    </row>
+    <row r="134" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="63"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="65"/>
+    </row>
+    <row r="135" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="63"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="65"/>
+    </row>
+    <row r="136" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="63"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="65"/>
+    </row>
+    <row r="137" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="63"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="65"/>
+    </row>
+    <row r="138" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="63"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="65"/>
+    </row>
+    <row r="139" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="63"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="65"/>
+    </row>
+    <row r="140" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="63"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="65"/>
+    </row>
+    <row r="141" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="63"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="64"/>
+      <c r="D141" s="65"/>
+    </row>
+    <row r="142" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="63"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="64"/>
+      <c r="D142" s="65"/>
+    </row>
+    <row r="143" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="63"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="65"/>
+    </row>
+    <row r="144" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="63"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="64"/>
+      <c r="D144" s="65"/>
+    </row>
+    <row r="158" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="64"/>
+      <c r="C158" s="64"/>
+      <c r="D158" s="65"/>
+    </row>
+    <row r="159" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="64"/>
+      <c r="C159" s="64"/>
+      <c r="D159" s="65"/>
+    </row>
+    <row r="160" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="64"/>
+      <c r="C160" s="64"/>
+      <c r="D160" s="65"/>
+    </row>
+    <row r="161" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="64"/>
+      <c r="C161" s="64"/>
+      <c r="D161" s="65"/>
+    </row>
+    <row r="162" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="64"/>
+      <c r="C162" s="64"/>
+      <c r="D162" s="65"/>
+    </row>
+    <row r="163" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="64"/>
+      <c r="C163" s="64"/>
+      <c r="D163" s="65"/>
+    </row>
+    <row r="164" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="64"/>
+      <c r="C164" s="64"/>
+      <c r="D164" s="65"/>
+    </row>
+    <row r="165" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="64"/>
+      <c r="C165" s="64"/>
+      <c r="D165" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3658,1634 +3832,1634 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="62.7265625" style="75" customWidth="1"/>
-    <col min="3" max="3" width="82.7265625" style="75" customWidth="1"/>
-    <col min="4" max="4" width="5.26953125" style="76" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="5"/>
+    <col min="1" max="1" width="6.26953125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="62.7265625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="82.7265625" style="64" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="65" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="74"/>
+      <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="D11" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="C12" s="75"/>
+      <c r="D12" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="D13" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="75"/>
+      <c r="D18" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="D20" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="D23" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="75"/>
+      <c r="D29" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="20" t="s">
+    <row r="31" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-    </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30" t="s">
+      <c r="C34" s="76"/>
+      <c r="D34" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="27" t="s">
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30" t="s">
+      <c r="C35" s="76"/>
+      <c r="D35" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="67"/>
+      <c r="D36" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="s">
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-    </row>
-    <row r="38" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="27" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="D38" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="30" t="s">
+      <c r="D39" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:4" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="30" t="s">
+      <c r="C40" s="67"/>
+      <c r="D40" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="2" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:4" s="1" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D41" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="2" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
+    <row r="42" spans="1:4" s="1" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="30" t="s">
+      <c r="D42" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A43" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="2" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="27" t="s">
+      <c r="D43" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="2" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:4" s="1" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D45" s="30" t="s">
+      <c r="D45" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="27" t="s">
+    <row r="46" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="2" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="27" t="s">
+    <row r="47" spans="1:4" s="1" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D47" s="30" t="s">
+      <c r="D47" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="2" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="33" t="s">
+    <row r="49" spans="1:4" s="1" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="30" t="s">
+      <c r="C49" s="67"/>
+      <c r="D49" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="2" customFormat="1" ht="84" x14ac:dyDescent="0.35">
-      <c r="A50" s="33" t="s">
+    <row r="50" spans="1:4" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+      <c r="A50" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="2" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="33" t="s">
+      <c r="D50" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="33" t="s">
+      <c r="D51" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="33" t="s">
+      <c r="D52" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="30" t="s">
+      <c r="D53" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="33" t="s">
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="24" t="s">
+      <c r="D54" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="C55" s="25"/>
-      <c r="D55" s="26"/>
-    </row>
-    <row r="56" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="27" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A57" s="27" t="s">
+      <c r="D56" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A57" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="30" t="s">
+      <c r="D57" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A58" s="27" t="s">
+    <row r="58" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A58" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C58" s="28"/>
-      <c r="D58" s="30" t="s">
+      <c r="C58" s="24"/>
+      <c r="D58" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="34" t="s">
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
-    </row>
-    <row r="61" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="37" t="s">
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="38" t="s">
+      <c r="B61" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39"/>
-    </row>
-    <row r="62" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A62" s="40" t="s">
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A62" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D62" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A63" s="40" t="s">
+      <c r="D62" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A63" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A64" s="40" t="s">
+    <row r="64" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D64" s="42" t="s">
+      <c r="D64" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="40" t="s">
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D65" s="42" t="s">
+      <c r="D65" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="2" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="40" t="s">
+    <row r="66" spans="1:4" s="1" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="D66" s="42" t="s">
+      <c r="D66" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="37" t="s">
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="C67" s="38"/>
-      <c r="D67" s="39"/>
-    </row>
-    <row r="68" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="40" t="s">
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="41" t="s">
+      <c r="B68" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D68" s="42" t="s">
+      <c r="D68" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="40" t="s">
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="D69" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="2" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="40" t="s">
+      <c r="D69" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="B70" s="41" t="s">
+      <c r="B70" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="41" t="s">
+      <c r="C70" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="40" t="s">
+      <c r="D70" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="D71" s="42" t="s">
+      <c r="D71" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="40" t="s">
+    <row r="72" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B72" s="41" t="s">
+      <c r="B72" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C72" s="41" t="s">
+      <c r="C72" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="D72" s="42" t="s">
+      <c r="D72" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A73" s="40" t="s">
+    <row r="73" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A73" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D73" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="40" t="s">
+      <c r="D73" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="D74" s="42" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="40" t="s">
+      <c r="D74" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="42" t="s">
+      <c r="D75" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="40" t="s">
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="42" t="s">
+      <c r="C76" s="69"/>
+      <c r="D76" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="37" t="s">
+    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B77" s="38" t="s">
+      <c r="B77" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="39"/>
-    </row>
-    <row r="78" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A78" s="40" t="s">
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A78" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="D78" s="42" t="s">
+      <c r="D78" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="2" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="40" t="s">
+    <row r="79" spans="1:4" s="1" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="D79" s="42" t="s">
+      <c r="D79" s="35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A80" s="40" t="s">
+    <row r="80" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A80" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="C80" s="41" t="s">
+      <c r="C80" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="D80" s="42" t="s">
+      <c r="D80" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="3"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="46" t="s">
+      <c r="A81" s="2"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="B82" s="47" t="s">
+      <c r="B82" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-    </row>
-    <row r="83" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="49" t="s">
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+    </row>
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="B83" s="50" t="s">
+      <c r="B83" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="51" t="s">
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C84" s="52"/>
-      <c r="D84" s="53" t="s">
+      <c r="C84" s="43"/>
+      <c r="D84" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A85" s="51" t="s">
+    <row r="85" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A85" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="52" t="s">
+      <c r="C85" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="51" t="s">
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B86" s="52" t="s">
+      <c r="B86" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="C86" s="52"/>
-      <c r="D86" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="49" t="s">
+      <c r="C86" s="43"/>
+      <c r="D86" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="51" t="s">
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="B88" s="52" t="s">
+      <c r="B88" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="C88" s="52"/>
-      <c r="D88" s="53" t="s">
+      <c r="C88" s="43"/>
+      <c r="D88" s="44" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A89" s="51" t="s">
+    <row r="89" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A89" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="B89" s="52" t="s">
+      <c r="B89" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="51" t="s">
+      <c r="C89" s="43"/>
+      <c r="D89" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="B90" s="52" t="s">
+      <c r="B90" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="C90" s="52"/>
-      <c r="D90" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="51" t="s">
+      <c r="C90" s="43"/>
+      <c r="D90" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="C91" s="52"/>
-      <c r="D91" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="51" t="s">
+      <c r="C91" s="43"/>
+      <c r="D91" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="B92" s="52" t="s">
+      <c r="B92" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C92" s="52"/>
-      <c r="D92" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="51" t="s">
+      <c r="C92" s="43"/>
+      <c r="D92" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B93" s="52" t="s">
+      <c r="B93" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="C93" s="52"/>
-      <c r="D93" s="53" t="s">
+      <c r="C93" s="43"/>
+      <c r="D93" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="49" t="s">
+    <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="B94" s="50" t="s">
+      <c r="B94" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="51" t="s">
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B95" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="C95" s="52"/>
-      <c r="D95" s="53" t="s">
+      <c r="C95" s="43"/>
+      <c r="D95" s="44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="51" t="s">
+    <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="C96" s="52"/>
-      <c r="D96" s="53" t="s">
+      <c r="C96" s="43"/>
+      <c r="D96" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="51" t="s">
+    <row r="97" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B97" s="52" t="s">
+      <c r="B97" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="C97" s="52" t="s">
+      <c r="C97" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="D97" s="53" t="s">
+      <c r="D97" s="44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="51" t="s">
+    <row r="98" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="B98" s="52" t="s">
+      <c r="B98" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="C98" s="54" t="s">
+      <c r="C98" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="D98" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="51" t="s">
+      <c r="D98" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="B99" s="52" t="s">
+      <c r="B99" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="C99" s="55"/>
-      <c r="D99" s="53" t="s">
+      <c r="C99" s="71"/>
+      <c r="D99" s="44" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="3"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="56" t="s">
+      <c r="A100" s="2"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="B101" s="57" t="s">
+      <c r="B101" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="C101" s="58"/>
-      <c r="D101" s="58"/>
-    </row>
-    <row r="102" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="59" t="s">
+      <c r="C101" s="47"/>
+      <c r="D101" s="47"/>
+    </row>
+    <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="B102" s="60" t="s">
+      <c r="B102" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A103" s="61" t="s">
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A103" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="B103" s="62" t="s">
+      <c r="B103" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C103" s="62" t="s">
+      <c r="C103" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="D103" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="61" t="s">
+      <c r="D103" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="B104" s="62" t="s">
+      <c r="B104" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C104" s="62"/>
-      <c r="D104" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="61" t="s">
+      <c r="C104" s="51"/>
+      <c r="D104" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="B105" s="62" t="s">
+      <c r="B105" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C105" s="62"/>
-      <c r="D105" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="61" t="s">
+      <c r="C105" s="51"/>
+      <c r="D105" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="B106" s="62" t="s">
+      <c r="B106" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="C106" s="62"/>
-      <c r="D106" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A107" s="61" t="s">
+      <c r="C106" s="51"/>
+      <c r="D106" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A107" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="B107" s="62" t="s">
+      <c r="B107" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C107" s="62" t="s">
+      <c r="C107" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="D107" s="63" t="s">
+      <c r="D107" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="61" t="s">
+    <row r="108" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="B108" s="62" t="s">
+      <c r="B108" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="C108" s="62"/>
-      <c r="D108" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="61" t="s">
+      <c r="C108" s="51"/>
+      <c r="D108" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="B109" s="62" t="s">
+      <c r="B109" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="C109" s="62"/>
-      <c r="D109" s="63"/>
-    </row>
-    <row r="110" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="59" t="s">
+      <c r="C109" s="51"/>
+      <c r="D109" s="52"/>
+    </row>
+    <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="B110" s="60" t="s">
+      <c r="B110" s="49" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="61" t="s">
+    <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="50" t="s">
         <v>264</v>
       </c>
-      <c r="B111" s="62" t="s">
+      <c r="B111" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="C111" s="62"/>
-      <c r="D111" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="61" t="s">
+      <c r="C111" s="51"/>
+      <c r="D111" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="B112" s="62" t="s">
+      <c r="B112" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C112" s="62"/>
-      <c r="D112" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="61" t="s">
+      <c r="C112" s="51"/>
+      <c r="D112" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="B113" s="62" t="s">
+      <c r="B113" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C113" s="62"/>
-      <c r="D113" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="61" t="s">
+      <c r="C113" s="51"/>
+      <c r="D113" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="B114" s="62" t="s">
+      <c r="B114" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="C114" s="62"/>
-      <c r="D114" s="63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.35">
-      <c r="A115" s="61" t="s">
+      <c r="C114" s="51"/>
+      <c r="D114" s="52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+      <c r="A115" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="B115" s="62" t="s">
+      <c r="B115" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C115" s="62" t="s">
+      <c r="C115" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="D115" s="63" t="s">
+      <c r="D115" s="52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="61" t="s">
+    <row r="116" spans="1:4" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="B116" s="62" t="s">
+      <c r="B116" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="C116" s="62" t="s">
+      <c r="C116" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="D116" s="63" t="s">
+      <c r="D116" s="52" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="117" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="3"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" s="2" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="64" t="s">
+      <c r="A117" s="2"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="B118" s="65" t="s">
+      <c r="B118" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="C118" s="66"/>
-      <c r="D118" s="67"/>
-    </row>
-    <row r="119" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="68" t="s">
+      <c r="C118" s="55"/>
+      <c r="D118" s="56"/>
+    </row>
+    <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="B119" s="69" t="s">
+      <c r="B119" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="70" t="s">
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="B120" s="71" t="s">
+      <c r="B120" s="60" t="s">
         <v>283</v>
       </c>
-      <c r="C120" s="71"/>
-      <c r="D120" s="72" t="s">
+      <c r="C120" s="60"/>
+      <c r="D120" s="61" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="68" t="s">
+    <row r="121" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="B121" s="69" t="s">
+      <c r="B121" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.35">
-      <c r="A122" s="73" t="s">
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+      <c r="A122" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="B122" s="71" t="s">
+      <c r="B122" s="60" t="s">
         <v>287</v>
       </c>
-      <c r="C122" s="71" t="s">
+      <c r="C122" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="D122" s="72" t="s">
+      <c r="D122" s="61" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="74"/>
-      <c r="B123" s="75"/>
-      <c r="C123" s="75"/>
-      <c r="D123" s="76"/>
-    </row>
-    <row r="124" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="74"/>
-      <c r="B124" s="75"/>
-      <c r="C124" s="75"/>
-      <c r="D124" s="76"/>
-    </row>
-    <row r="125" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="74"/>
-      <c r="B125" s="75"/>
-      <c r="C125" s="75"/>
-      <c r="D125" s="76"/>
-    </row>
-    <row r="126" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="74"/>
-      <c r="B126" s="75"/>
-      <c r="C126" s="75"/>
-      <c r="D126" s="76"/>
+    <row r="123" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="63"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="64"/>
+      <c r="D123" s="65"/>
+    </row>
+    <row r="124" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="63"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="64"/>
+      <c r="D124" s="65"/>
+    </row>
+    <row r="125" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="63"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="65"/>
+    </row>
+    <row r="126" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="63"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="65"/>
     </row>
     <row r="127" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="74"/>
-      <c r="B127" s="75"/>
-      <c r="C127" s="75"/>
-      <c r="D127" s="76"/>
-    </row>
-    <row r="128" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="74"/>
-      <c r="B128" s="75"/>
-      <c r="C128" s="75"/>
-      <c r="D128" s="76"/>
-    </row>
-    <row r="129" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="74"/>
-      <c r="B129" s="75"/>
-      <c r="C129" s="75"/>
-      <c r="D129" s="76"/>
-    </row>
-    <row r="130" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="74"/>
-      <c r="B130" s="75"/>
-      <c r="C130" s="75"/>
-      <c r="D130" s="76"/>
-    </row>
-    <row r="131" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="74"/>
-      <c r="B131" s="75"/>
-      <c r="C131" s="75"/>
-      <c r="D131" s="76"/>
-    </row>
-    <row r="132" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="74"/>
-      <c r="B132" s="75"/>
-      <c r="C132" s="75"/>
-      <c r="D132" s="76"/>
-    </row>
-    <row r="133" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="74"/>
-      <c r="B133" s="75"/>
-      <c r="C133" s="75"/>
-      <c r="D133" s="76"/>
-    </row>
-    <row r="134" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="74"/>
-      <c r="B134" s="75"/>
-      <c r="C134" s="75"/>
-      <c r="D134" s="76"/>
-    </row>
-    <row r="135" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="74"/>
-      <c r="B135" s="75"/>
-      <c r="C135" s="75"/>
-      <c r="D135" s="76"/>
-    </row>
-    <row r="136" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="74"/>
-      <c r="B136" s="75"/>
-      <c r="C136" s="75"/>
-      <c r="D136" s="76"/>
-    </row>
-    <row r="137" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="74"/>
-      <c r="B137" s="75"/>
-      <c r="C137" s="75"/>
-      <c r="D137" s="76"/>
-    </row>
-    <row r="138" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="74"/>
-      <c r="B138" s="75"/>
-      <c r="C138" s="75"/>
-      <c r="D138" s="76"/>
-    </row>
-    <row r="139" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="74"/>
-      <c r="B139" s="75"/>
-      <c r="C139" s="75"/>
-      <c r="D139" s="76"/>
-    </row>
-    <row r="140" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="74"/>
-      <c r="B140" s="75"/>
-      <c r="C140" s="75"/>
-      <c r="D140" s="76"/>
-    </row>
-    <row r="154" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="75"/>
-      <c r="C154" s="75"/>
-      <c r="D154" s="76"/>
-    </row>
-    <row r="155" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="75"/>
-      <c r="C155" s="75"/>
-      <c r="D155" s="76"/>
-    </row>
-    <row r="156" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="75"/>
-      <c r="C156" s="75"/>
-      <c r="D156" s="76"/>
-    </row>
-    <row r="157" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="75"/>
-      <c r="C157" s="75"/>
-      <c r="D157" s="76"/>
-    </row>
-    <row r="158" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="75"/>
-      <c r="C158" s="75"/>
-      <c r="D158" s="76"/>
-    </row>
-    <row r="159" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="75"/>
-      <c r="C159" s="75"/>
-      <c r="D159" s="76"/>
-    </row>
-    <row r="160" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="75"/>
-      <c r="C160" s="75"/>
-      <c r="D160" s="76"/>
-    </row>
-    <row r="161" spans="2:4" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="75"/>
-      <c r="C161" s="75"/>
-      <c r="D161" s="76"/>
+      <c r="A127" s="63"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="64"/>
+      <c r="D127" s="65"/>
+    </row>
+    <row r="128" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="63"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="64"/>
+      <c r="D128" s="65"/>
+    </row>
+    <row r="129" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="63"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="65"/>
+    </row>
+    <row r="130" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="63"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="65"/>
+    </row>
+    <row r="131" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="63"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="64"/>
+      <c r="D131" s="65"/>
+    </row>
+    <row r="132" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="63"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="64"/>
+      <c r="D132" s="65"/>
+    </row>
+    <row r="133" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="63"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="64"/>
+      <c r="D133" s="65"/>
+    </row>
+    <row r="134" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="63"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="64"/>
+      <c r="D134" s="65"/>
+    </row>
+    <row r="135" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="63"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="64"/>
+      <c r="D135" s="65"/>
+    </row>
+    <row r="136" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="63"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="64"/>
+      <c r="D136" s="65"/>
+    </row>
+    <row r="137" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="63"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="65"/>
+    </row>
+    <row r="138" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="63"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="64"/>
+      <c r="D138" s="65"/>
+    </row>
+    <row r="139" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="63"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="65"/>
+    </row>
+    <row r="140" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="63"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="64"/>
+      <c r="D140" s="65"/>
+    </row>
+    <row r="154" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="64"/>
+      <c r="C154" s="64"/>
+      <c r="D154" s="65"/>
+    </row>
+    <row r="155" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="64"/>
+      <c r="C155" s="64"/>
+      <c r="D155" s="65"/>
+    </row>
+    <row r="156" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="64"/>
+      <c r="C156" s="64"/>
+      <c r="D156" s="65"/>
+    </row>
+    <row r="157" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="64"/>
+      <c r="C157" s="64"/>
+      <c r="D157" s="65"/>
+    </row>
+    <row r="158" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="64"/>
+      <c r="C158" s="64"/>
+      <c r="D158" s="65"/>
+    </row>
+    <row r="159" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="64"/>
+      <c r="C159" s="64"/>
+      <c r="D159" s="65"/>
+    </row>
+    <row r="160" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="64"/>
+      <c r="C160" s="64"/>
+      <c r="D160" s="65"/>
+    </row>
+    <row r="161" spans="2:4" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="64"/>
+      <c r="C161" s="64"/>
+      <c r="D161" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="10">
